--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H2">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I2">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J2">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.126378</v>
+        <v>4.609433333333333</v>
       </c>
       <c r="N2">
-        <v>12.379134</v>
+        <v>13.8283</v>
       </c>
       <c r="O2">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="P2">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="Q2">
-        <v>52.79903531251666</v>
+        <v>22.69213428303333</v>
       </c>
       <c r="R2">
-        <v>475.19131781265</v>
+        <v>204.2292085472999</v>
       </c>
       <c r="S2">
-        <v>0.07499334013385298</v>
+        <v>0.04637196947809551</v>
       </c>
       <c r="T2">
-        <v>0.07499334013385299</v>
+        <v>0.04637196947809549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H3">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I3">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J3">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>34.177571</v>
       </c>
       <c r="O3">
-        <v>0.4023538194014014</v>
+        <v>0.395604709146443</v>
       </c>
       <c r="P3">
-        <v>0.4023538194014014</v>
+        <v>0.3956047091464429</v>
       </c>
       <c r="Q3">
-        <v>145.7729416391361</v>
+        <v>56.08513198295567</v>
       </c>
       <c r="R3">
-        <v>1311.956474752225</v>
+        <v>504.7661878466009</v>
       </c>
       <c r="S3">
-        <v>0.2070492335693199</v>
+        <v>0.1146114330212277</v>
       </c>
       <c r="T3">
-        <v>0.20704923356932</v>
+        <v>0.1146114330212276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H4">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I4">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J4">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>38.387365</v>
       </c>
       <c r="O4">
-        <v>0.4519134178524764</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="P4">
-        <v>0.4519134178524763</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="Q4">
-        <v>163.7284029875972</v>
+        <v>62.99337166186832</v>
       </c>
       <c r="R4">
-        <v>1473.555626888375</v>
+        <v>566.9403449568149</v>
       </c>
       <c r="S4">
-        <v>0.2325523514235619</v>
+        <v>0.1287286013555181</v>
       </c>
       <c r="T4">
-        <v>0.2325523514235619</v>
+        <v>0.1287286013555181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.126378</v>
+        <v>4.609433333333333</v>
       </c>
       <c r="N5">
-        <v>12.379134</v>
+        <v>13.8283</v>
       </c>
       <c r="O5">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="P5">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="Q5">
-        <v>40.454580768688</v>
+        <v>45.19040501893333</v>
       </c>
       <c r="R5">
-        <v>364.091226918192</v>
+        <v>406.7136451704</v>
       </c>
       <c r="S5">
-        <v>0.05745984027173014</v>
+        <v>0.09234777373089954</v>
       </c>
       <c r="T5">
-        <v>0.05745984027173014</v>
+        <v>0.09234777373089954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>34.177571</v>
       </c>
       <c r="O6">
-        <v>0.4023538194014014</v>
+        <v>0.395604709146443</v>
       </c>
       <c r="P6">
-        <v>0.4023538194014014</v>
+        <v>0.3956047091464429</v>
       </c>
       <c r="Q6">
         <v>111.6911172055387</v>
@@ -818,10 +818,10 @@
         <v>1005.220054849848</v>
       </c>
       <c r="S6">
-        <v>0.1586409655583109</v>
+        <v>0.2282437171148843</v>
       </c>
       <c r="T6">
-        <v>0.1586409655583109</v>
+        <v>0.2282437171148843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>38.387365</v>
       </c>
       <c r="O7">
-        <v>0.4519134178524764</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="P7">
-        <v>0.4519134178524763</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="Q7">
         <v>125.4485780580133</v>
@@ -880,10 +880,10 @@
         <v>1129.03720252212</v>
       </c>
       <c r="S7">
-        <v>0.1781814350949432</v>
+        <v>0.2563574479253019</v>
       </c>
       <c r="T7">
-        <v>0.1781814350949432</v>
+        <v>0.2563574479253019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J8">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.126378</v>
+        <v>4.609433333333333</v>
       </c>
       <c r="N8">
-        <v>12.379134</v>
+        <v>13.8283</v>
       </c>
       <c r="O8">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="P8">
-        <v>0.1457327627461222</v>
+        <v>0.1600622993216737</v>
       </c>
       <c r="Q8">
-        <v>9.349485376729998</v>
+        <v>10.44398490516667</v>
       </c>
       <c r="R8">
-        <v>84.14536839057</v>
+        <v>93.9958641465</v>
       </c>
       <c r="S8">
-        <v>0.01327958234053911</v>
+        <v>0.02134255611267869</v>
       </c>
       <c r="T8">
-        <v>0.01327958234053912</v>
+        <v>0.02134255611267869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J9">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>34.177571</v>
       </c>
       <c r="O9">
-        <v>0.4023538194014014</v>
+        <v>0.395604709146443</v>
       </c>
       <c r="P9">
-        <v>0.4023538194014014</v>
+        <v>0.3956047091464429</v>
       </c>
       <c r="Q9">
-        <v>25.81300923607833</v>
+        <v>25.81300923607834</v>
       </c>
       <c r="R9">
         <v>232.317083124705</v>
       </c>
       <c r="S9">
-        <v>0.0366636202737705</v>
+        <v>0.05274955901033102</v>
       </c>
       <c r="T9">
-        <v>0.03666362027377051</v>
+        <v>0.052749559010331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J10">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>38.387365</v>
       </c>
       <c r="O10">
-        <v>0.4519134178524764</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="P10">
-        <v>0.4519134178524763</v>
+        <v>0.4443329915318833</v>
       </c>
       <c r="Q10">
         <v>28.99250526884166</v>
@@ -1066,10 +1066,10 @@
         <v>260.932547419575</v>
       </c>
       <c r="S10">
-        <v>0.04117963133397128</v>
+        <v>0.05924694225106327</v>
       </c>
       <c r="T10">
-        <v>0.04117963133397129</v>
+        <v>0.05924694225106326</v>
       </c>
     </row>
   </sheetData>
